--- a/output/3Y_P4_KFSDIV.xlsx
+++ b/output/3Y_P4_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -3627,10 +3630,10 @@
         <v>168186.8978</v>
       </c>
       <c r="K15" s="1">
-        <v>107237.2013</v>
+        <v>107241.7694</v>
       </c>
       <c r="L15" s="1">
-        <v>9.761799999999999</v>
+        <v>9.7622</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -3680,10 +3683,10 @@
         <v>189643.9014</v>
       </c>
       <c r="K16" s="1">
-        <v>109436.471</v>
+        <v>109441.0391</v>
       </c>
       <c r="L16" s="1">
-        <v>9.806100000000001</v>
+        <v>9.8065</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -3733,10 +3736,10 @@
         <v>216434.0757</v>
       </c>
       <c r="K17" s="1">
-        <v>107964.8092</v>
+        <v>107975.2525</v>
       </c>
       <c r="L17" s="1">
-        <v>9.768800000000001</v>
+        <v>9.7697</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -3786,10 +3789,10 @@
         <v>226812.2953</v>
       </c>
       <c r="K18" s="1">
-        <v>106189.545</v>
+        <v>106207.0793</v>
       </c>
       <c r="L18" s="1">
-        <v>9.714399999999999</v>
+        <v>9.715999999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -3839,10 +3842,10 @@
         <v>226480.9256</v>
       </c>
       <c r="K19" s="1">
-        <v>115849.9526</v>
+        <v>115867.4869</v>
       </c>
       <c r="L19" s="1">
-        <v>9.9983</v>
+        <v>9.9998</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -3892,10 +3895,10 @@
         <v>248407.9927</v>
       </c>
       <c r="K20" s="1">
-        <v>136224.1116</v>
+        <v>136241.6459</v>
       </c>
       <c r="L20" s="1">
-        <v>10.4312</v>
+        <v>10.4326</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -3945,10 +3948,10 @@
         <v>239996.3627</v>
       </c>
       <c r="K21" s="1">
-        <v>144677.7285</v>
+        <v>144695.2628</v>
       </c>
       <c r="L21" s="1">
-        <v>10.5876</v>
+        <v>10.5889</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -3998,10 +4001,10 @@
         <v>245148.1818</v>
       </c>
       <c r="K22" s="1">
-        <v>173169.4467</v>
+        <v>173186.981</v>
       </c>
       <c r="L22" s="1">
-        <v>10.8745</v>
+        <v>10.8756</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -4051,10 +4054,10 @@
         <v>275549.8778</v>
       </c>
       <c r="K23" s="1">
-        <v>187962.8687</v>
+        <v>187980.403</v>
       </c>
       <c r="L23" s="1">
-        <v>10.9753</v>
+        <v>10.9764</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -4104,10 +4107,10 @@
         <v>298074.8809</v>
       </c>
       <c r="K24" s="1">
-        <v>184654.7843</v>
+        <v>184685.5351</v>
       </c>
       <c r="L24" s="1">
-        <v>10.9436</v>
+        <v>10.9455</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -4157,10 +4160,10 @@
         <v>303999.1808</v>
       </c>
       <c r="K25" s="1">
-        <v>182119.6487</v>
+        <v>182160.532</v>
       </c>
       <c r="L25" s="1">
-        <v>10.9119</v>
+        <v>10.9143</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -4210,10 +4213,10 @@
         <v>314643.1895</v>
       </c>
       <c r="K26" s="1">
-        <v>196251.8117</v>
+        <v>196292.695</v>
       </c>
       <c r="L26" s="1">
-        <v>11.069</v>
+        <v>11.0713</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -4263,10 +4266,10 @@
         <v>350907.4022</v>
       </c>
       <c r="K27" s="1">
-        <v>213129.3274</v>
+        <v>213170.2106</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2126</v>
+        <v>11.2148</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -4316,10 +4319,10 @@
         <v>350112.297</v>
       </c>
       <c r="K28" s="1">
-        <v>196732.1368</v>
+        <v>196838.5145</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0001</v>
+        <v>11.0061</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -4369,10 +4372,10 @@
         <v>335277.5934</v>
       </c>
       <c r="K29" s="1">
-        <v>217610.6666</v>
+        <v>217717.0442</v>
       </c>
       <c r="L29" s="1">
-        <v>11.2304</v>
+        <v>11.2359</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -4422,10 +4425,10 @@
         <v>348401.9545</v>
       </c>
       <c r="K30" s="1">
-        <v>260581.6534</v>
+        <v>260688.0311</v>
       </c>
       <c r="L30" s="1">
-        <v>11.3924</v>
+        <v>11.3971</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -4475,10 +4478,10 @@
         <v>358077.6892</v>
       </c>
       <c r="K31" s="1">
-        <v>267312.5266</v>
+        <v>267418.9042</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4165</v>
+        <v>11.4211</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -4528,10 +4531,10 @@
         <v>390761.7573</v>
       </c>
       <c r="K32" s="1">
-        <v>277651.1704</v>
+        <v>277757.5481</v>
       </c>
       <c r="L32" s="1">
-        <v>11.4511</v>
+        <v>11.4555</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -4581,10 +4584,10 @@
         <v>411608.3263</v>
       </c>
       <c r="K33" s="1">
-        <v>275453.5479</v>
+        <v>275568.7145</v>
       </c>
       <c r="L33" s="1">
-        <v>11.4407</v>
+        <v>11.4454</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -4634,10 +4637,10 @@
         <v>434253.6813</v>
       </c>
       <c r="K34" s="1">
-        <v>274603.5801</v>
+        <v>274722.1455</v>
       </c>
       <c r="L34" s="1">
-        <v>11.4355</v>
+        <v>11.4405</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -4687,10 +4690,10 @@
         <v>472807.1954</v>
       </c>
       <c r="K35" s="1">
-        <v>271947.6075</v>
+        <v>272076.7905</v>
       </c>
       <c r="L35" s="1">
-        <v>11.4157</v>
+        <v>11.4211</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -4740,10 +4743,10 @@
         <v>499933.4353</v>
       </c>
       <c r="K36" s="1">
-        <v>264168.9882</v>
+        <v>264329.2197</v>
       </c>
       <c r="L36" s="1">
-        <v>11.3419</v>
+        <v>11.3487</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -4793,10 +4796,10 @@
         <v>475933.0179</v>
       </c>
       <c r="K37" s="1">
-        <v>257014.165</v>
+        <v>257202.9797</v>
       </c>
       <c r="L37" s="1">
-        <v>11.2593</v>
+        <v>11.2676</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -4846,10 +4849,10 @@
         <v>502623.5556</v>
       </c>
       <c r="K38" s="1">
-        <v>301190.9859</v>
+        <v>301379.8006</v>
       </c>
       <c r="L38" s="1">
-        <v>11.582</v>
+        <v>11.5892</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -5667,10 +5670,10 @@
         <v>169027.498</v>
       </c>
       <c r="K15" s="1">
-        <v>110758.3691</v>
+        <v>110761.7117</v>
       </c>
       <c r="L15" s="1">
-        <v>9.7834</v>
+        <v>9.7837</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -5720,10 +5723,10 @@
         <v>190862.9668</v>
       </c>
       <c r="K16" s="1">
-        <v>113390.595</v>
+        <v>113393.9376</v>
       </c>
       <c r="L16" s="1">
-        <v>9.834300000000001</v>
+        <v>9.8346</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -5773,10 +5776,10 @@
         <v>218240.6114</v>
       </c>
       <c r="K17" s="1">
-        <v>112263.3251</v>
+        <v>112271.168</v>
       </c>
       <c r="L17" s="1">
-        <v>9.806900000000001</v>
+        <v>9.807600000000001</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -5826,10 +5829,10 @@
         <v>228633.3506</v>
       </c>
       <c r="K18" s="1">
-        <v>110845.3699</v>
+        <v>110858.8766</v>
       </c>
       <c r="L18" s="1">
-        <v>9.7654</v>
+        <v>9.7666</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -5879,10 +5882,10 @@
         <v>227876.5194</v>
       </c>
       <c r="K19" s="1">
-        <v>121325.246</v>
+        <v>121338.7527</v>
       </c>
       <c r="L19" s="1">
-        <v>10.0582</v>
+        <v>10.0594</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -5932,10 +5935,10 @@
         <v>250295.0703</v>
       </c>
       <c r="K20" s="1">
-        <v>143011.699</v>
+        <v>143025.2057</v>
       </c>
       <c r="L20" s="1">
-        <v>10.4929</v>
+        <v>10.4939</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -5985,10 +5988,10 @@
         <v>241029.0374</v>
       </c>
       <c r="K21" s="1">
-        <v>152339.1157</v>
+        <v>152352.6224</v>
       </c>
       <c r="L21" s="1">
-        <v>10.6549</v>
+        <v>10.6559</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -6038,10 +6041,10 @@
         <v>245941.6816</v>
       </c>
       <c r="K22" s="1">
-        <v>182683.1335</v>
+        <v>182696.6402</v>
       </c>
       <c r="L22" s="1">
-        <v>10.9365</v>
+        <v>10.9374</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -6091,10 +6094,10 @@
         <v>277375.3287</v>
       </c>
       <c r="K23" s="1">
-        <v>198762.4215</v>
+        <v>198775.9282</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0362</v>
+        <v>11.037</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -6144,10 +6147,10 @@
         <v>300580.3433</v>
       </c>
       <c r="K24" s="1">
-        <v>195873.9386</v>
+        <v>195898.9854</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0108</v>
+        <v>11.0122</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -6197,10 +6200,10 @@
         <v>306272.4341</v>
       </c>
       <c r="K25" s="1">
-        <v>193820.4381</v>
+        <v>193853.6924</v>
       </c>
       <c r="L25" s="1">
-        <v>10.987</v>
+        <v>10.9889</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -6250,10 +6253,10 @@
         <v>316932.2201</v>
       </c>
       <c r="K26" s="1">
-        <v>209406.1378</v>
+        <v>209439.3921</v>
       </c>
       <c r="L26" s="1">
-        <v>11.1459</v>
+        <v>11.1477</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -6303,10 +6306,10 @@
         <v>354831.8625</v>
       </c>
       <c r="K27" s="1">
-        <v>227968.3064</v>
+        <v>228001.5607</v>
       </c>
       <c r="L27" s="1">
-        <v>11.2893</v>
+        <v>11.2909</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -6356,10 +6359,10 @@
         <v>353334.2822</v>
       </c>
       <c r="K28" s="1">
-        <v>211255.6459</v>
+        <v>211355.6546</v>
       </c>
       <c r="L28" s="1">
-        <v>11.0905</v>
+        <v>11.0957</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -6409,10 +6412,10 @@
         <v>336791.4052</v>
       </c>
       <c r="K29" s="1">
-        <v>234229.619</v>
+        <v>234329.6277</v>
       </c>
       <c r="L29" s="1">
-        <v>11.3206</v>
+        <v>11.3255</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -6462,10 +6465,10 @@
         <v>350133.4973</v>
       </c>
       <c r="K30" s="1">
-        <v>280880.3394</v>
+        <v>280980.3481</v>
       </c>
       <c r="L30" s="1">
-        <v>11.471</v>
+        <v>11.4751</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -6515,10 +6518,10 @@
         <v>359782.3674</v>
       </c>
       <c r="K31" s="1">
-        <v>288882.5885</v>
+        <v>288982.5972</v>
       </c>
       <c r="L31" s="1">
-        <v>11.4957</v>
+        <v>11.4996</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -6568,10 +6571,10 @@
         <v>394158.3198</v>
       </c>
       <c r="K32" s="1">
-        <v>300805.5614</v>
+        <v>300905.5701</v>
       </c>
       <c r="L32" s="1">
-        <v>11.5298</v>
+        <v>11.5336</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -6621,10 +6624,10 @@
         <v>415859.1145</v>
       </c>
       <c r="K33" s="1">
-        <v>299298.3427</v>
+        <v>299404.3793</v>
       </c>
       <c r="L33" s="1">
-        <v>11.5235</v>
+        <v>11.5276</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -6674,10 +6677,10 @@
         <v>439535.3124</v>
       </c>
       <c r="K34" s="1">
-        <v>299269.5035</v>
+        <v>299375.6554</v>
       </c>
       <c r="L34" s="1">
-        <v>11.5233</v>
+        <v>11.5274</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -6727,10 +6730,10 @@
         <v>480465.7163</v>
       </c>
       <c r="K35" s="1">
-        <v>297315.9272</v>
+        <v>297429.8887</v>
       </c>
       <c r="L35" s="1">
-        <v>11.5104</v>
+        <v>11.5148</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -6780,10 +6783,10 @@
         <v>509083.2363</v>
       </c>
       <c r="K36" s="1">
-        <v>289831.5709</v>
+        <v>289975.4064</v>
       </c>
       <c r="L36" s="1">
-        <v>11.4469</v>
+        <v>11.4526</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -6833,10 +6836,10 @@
         <v>482027.2713</v>
       </c>
       <c r="K37" s="1">
-        <v>283034.9274</v>
+        <v>283205.9152</v>
       </c>
       <c r="L37" s="1">
-        <v>11.3769</v>
+        <v>11.3837</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -6886,10 +6889,10 @@
         <v>510232.1862</v>
       </c>
       <c r="K38" s="1">
-        <v>332194.4613</v>
+        <v>332365.4491</v>
       </c>
       <c r="L38" s="1">
-        <v>11.6908</v>
+        <v>11.6968</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -7707,10 +7710,10 @@
         <v>169894.3529</v>
       </c>
       <c r="K15" s="1">
-        <v>114416.8409</v>
+        <v>114418.8611</v>
       </c>
       <c r="L15" s="1">
-        <v>9.8049</v>
+        <v>9.805099999999999</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -7760,10 +7763,10 @@
         <v>192123.6925</v>
       </c>
       <c r="K16" s="1">
-        <v>117514.4419</v>
+        <v>117516.4621</v>
       </c>
       <c r="L16" s="1">
-        <v>9.862500000000001</v>
+        <v>9.8627</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -7813,10 +7816,10 @@
         <v>220114.2843</v>
       </c>
       <c r="K17" s="1">
-        <v>116764.4798</v>
+        <v>116769.494</v>
       </c>
       <c r="L17" s="1">
-        <v>9.8451</v>
+        <v>9.845499999999999</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -7866,10 +7869,10 @@
         <v>230522.2382</v>
       </c>
       <c r="K18" s="1">
-        <v>115741.3456</v>
+        <v>115750.4466</v>
       </c>
       <c r="L18" s="1">
-        <v>9.8164</v>
+        <v>9.8172</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -7919,10 +7922,10 @@
         <v>229317.99</v>
       </c>
       <c r="K19" s="1">
-        <v>127104.6143</v>
+        <v>127113.7153</v>
       </c>
       <c r="L19" s="1">
-        <v>10.1182</v>
+        <v>10.1189</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -7972,10 +7975,10 @@
         <v>252253.4191</v>
       </c>
       <c r="K20" s="1">
-        <v>150198.7564</v>
+        <v>150207.8574</v>
       </c>
       <c r="L20" s="1">
-        <v>10.5545</v>
+        <v>10.5551</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -8025,10 +8028,10 @@
         <v>242082.8895</v>
       </c>
       <c r="K21" s="1">
-        <v>160479.3964</v>
+        <v>160488.4974</v>
       </c>
       <c r="L21" s="1">
-        <v>10.722</v>
+        <v>10.7227</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -8078,10 +8081,10 @@
         <v>246741.3995</v>
       </c>
       <c r="K22" s="1">
-        <v>192819.1812</v>
+        <v>192828.2822</v>
       </c>
       <c r="L22" s="1">
-        <v>10.9982</v>
+        <v>10.9987</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -8131,10 +8134,10 @@
         <v>279273.3559</v>
       </c>
       <c r="K23" s="1">
-        <v>210303.1849</v>
+        <v>210312.2858</v>
       </c>
       <c r="L23" s="1">
-        <v>11.0966</v>
+        <v>11.0971</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -8184,10 +8187,10 @@
         <v>303205.4781</v>
       </c>
       <c r="K24" s="1">
-        <v>207905.0463</v>
+        <v>207923.7283</v>
       </c>
       <c r="L24" s="1">
-        <v>11.0771</v>
+        <v>11.0781</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -8237,10 +8240,10 @@
         <v>308648.4375</v>
       </c>
       <c r="K25" s="1">
-        <v>206414.1237</v>
+        <v>206438.7647</v>
       </c>
       <c r="L25" s="1">
-        <v>11.0612</v>
+        <v>11.0625</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -8290,10 +8293,10 @@
         <v>319323.4662</v>
       </c>
       <c r="K26" s="1">
-        <v>223611.504</v>
+        <v>223636.145</v>
       </c>
       <c r="L26" s="1">
-        <v>11.2218</v>
+        <v>11.2231</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -8343,10 +8346,10 @@
         <v>358989.421</v>
       </c>
       <c r="K27" s="1">
-        <v>244044.3063</v>
+        <v>244068.9473</v>
       </c>
       <c r="L27" s="1">
-        <v>11.3647</v>
+        <v>11.3659</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -8396,10 +8399,10 @@
         <v>356730.4865</v>
       </c>
       <c r="K28" s="1">
-        <v>227053.1053</v>
+        <v>227145.6133</v>
       </c>
       <c r="L28" s="1">
-        <v>11.1795</v>
+        <v>11.1841</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -8449,10 +8452,10 @@
         <v>338327.8147</v>
       </c>
       <c r="K29" s="1">
-        <v>252365.745</v>
+        <v>252458.253</v>
       </c>
       <c r="L29" s="1">
-        <v>11.4094</v>
+        <v>11.4136</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -8502,10 +8505,10 @@
         <v>351907.2541</v>
       </c>
       <c r="K30" s="1">
-        <v>303091.3749</v>
+        <v>303183.8829</v>
       </c>
       <c r="L30" s="1">
-        <v>11.548</v>
+        <v>11.5515</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -8555,10 +8558,10 @@
         <v>361526.4127</v>
       </c>
       <c r="K31" s="1">
-        <v>312560.0421</v>
+        <v>312652.5501</v>
       </c>
       <c r="L31" s="1">
-        <v>11.573</v>
+        <v>11.5764</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -8608,10 +8611,10 @@
         <v>397757.914</v>
       </c>
       <c r="K32" s="1">
-        <v>326302.9512</v>
+        <v>326395.4592</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6064</v>
+        <v>11.6097</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -8661,10 +8664,10 @@
         <v>420400.3741</v>
       </c>
       <c r="K33" s="1">
-        <v>325645.9041</v>
+        <v>325741.0399</v>
       </c>
       <c r="L33" s="1">
-        <v>11.604</v>
+        <v>11.6074</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -8714,10 +8717,10 @@
         <v>445212.9077</v>
       </c>
       <c r="K34" s="1">
-        <v>326620.6155</v>
+        <v>326715.7513</v>
       </c>
       <c r="L34" s="1">
-        <v>11.6086</v>
+        <v>11.612</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -8767,10 +8770,10 @@
         <v>488778.0733</v>
       </c>
       <c r="K35" s="1">
-        <v>325549.3085</v>
+        <v>325648.7269</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6023</v>
+        <v>11.6059</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -8820,10 +8823,10 @@
         <v>519056.397</v>
       </c>
       <c r="K36" s="1">
-        <v>318504.1344</v>
+        <v>318631.6738</v>
       </c>
       <c r="L36" s="1">
-        <v>11.5491</v>
+        <v>11.5537</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -8873,10 +8876,10 @@
         <v>488585.9182</v>
       </c>
       <c r="K37" s="1">
-        <v>312226.5017</v>
+        <v>312379.1199</v>
       </c>
       <c r="L37" s="1">
-        <v>11.4914</v>
+        <v>11.497</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -8926,10 +8929,10 @@
         <v>518484.9431</v>
       </c>
       <c r="K38" s="1">
-        <v>367082.053</v>
+        <v>367234.6712</v>
       </c>
       <c r="L38" s="1">
-        <v>11.7967</v>
+        <v>11.8016</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>8.9413</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>8.9801</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8.6477</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>9.568899999999999</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.429399999999999</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>9.603999999999999</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3595</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.0875</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.1692</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>11.0872</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.0976</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.8505</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>11.8576</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.5699</v>
@@ -9747,7 +9750,7 @@
         <v>170787.9728</v>
       </c>
       <c r="K15" s="1">
-        <v>118216.3855</v>
+        <v>118216.9809</v>
       </c>
       <c r="L15" s="1">
         <v>9.8264</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5994</v>
@@ -9800,7 +9803,7 @@
         <v>193427.2337</v>
       </c>
       <c r="K16" s="1">
-        <v>121813.7603</v>
+        <v>121814.3556</v>
       </c>
       <c r="L16" s="1">
         <v>9.890599999999999</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6663</v>
@@ -9853,10 +9856,10 @@
         <v>222057.3934</v>
       </c>
       <c r="K17" s="1">
-        <v>121476.3431</v>
+        <v>121478.2855</v>
       </c>
       <c r="L17" s="1">
-        <v>9.882999999999999</v>
+        <v>9.8832</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.701</v>
@@ -9906,10 +9909,10 @@
         <v>232481.2918</v>
       </c>
       <c r="K18" s="1">
-        <v>120888.4297</v>
+        <v>120892.7204</v>
       </c>
       <c r="L18" s="1">
-        <v>9.8673</v>
+        <v>9.867699999999999</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8109</v>
@@ -9959,10 +9962,10 @@
         <v>230806.4843</v>
       </c>
       <c r="K19" s="1">
-        <v>133203.6293</v>
+        <v>133207.92</v>
       </c>
       <c r="L19" s="1">
-        <v>10.178</v>
+        <v>10.1783</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.9322</v>
@@ -10012,10 +10015,10 @@
         <v>254285.5616</v>
       </c>
       <c r="K20" s="1">
-        <v>157807.7172</v>
+        <v>157812.0079</v>
       </c>
       <c r="L20" s="1">
-        <v>10.6158</v>
+        <v>10.6161</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.5846</v>
@@ -10065,10 +10068,10 @@
         <v>243157.3375</v>
       </c>
       <c r="K21" s="1">
-        <v>169127.6617</v>
+        <v>169131.9524</v>
       </c>
       <c r="L21" s="1">
-        <v>10.7888</v>
+        <v>10.7891</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.2867</v>
@@ -10118,10 +10121,10 @@
         <v>247545.7615</v>
       </c>
       <c r="K22" s="1">
-        <v>203618.0004</v>
+        <v>203622.2911</v>
       </c>
       <c r="L22" s="1">
-        <v>11.0593</v>
+        <v>11.0596</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.0645</v>
@@ -10171,10 +10174,10 @@
         <v>281246.9245</v>
       </c>
       <c r="K23" s="1">
-        <v>222636.2756</v>
+        <v>222640.5663</v>
       </c>
       <c r="L23" s="1">
-        <v>11.1562</v>
+        <v>11.1564</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.8083</v>
@@ -10224,10 +10227,10 @@
         <v>305956.7321</v>
       </c>
       <c r="K24" s="1">
-        <v>220807.5305</v>
+        <v>220819.1275</v>
       </c>
       <c r="L24" s="1">
-        <v>11.1426</v>
+        <v>11.1432</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.5636</v>
@@ -10277,10 +10280,10 @@
         <v>311132.3182</v>
       </c>
       <c r="K25" s="1">
-        <v>219970.0125</v>
+        <v>219984.9568</v>
       </c>
       <c r="L25" s="1">
-        <v>11.1343</v>
+        <v>11.1351</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.1788</v>
@@ -10330,10 +10333,10 @@
         <v>321821.8681</v>
       </c>
       <c r="K26" s="1">
-        <v>238954.0458</v>
+        <v>238968.9901</v>
       </c>
       <c r="L26" s="1">
-        <v>11.2966</v>
+        <v>11.2973</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.5668</v>
@@ -10383,10 +10386,10 @@
         <v>363396.2803</v>
       </c>
       <c r="K27" s="1">
-        <v>261463.8777</v>
+        <v>261478.822</v>
       </c>
       <c r="L27" s="1">
-        <v>11.4389</v>
+        <v>11.4395</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.962</v>
@@ -10436,10 +10439,10 @@
         <v>360311.7954</v>
       </c>
       <c r="K28" s="1">
-        <v>244240.1192</v>
+        <v>244323.8594</v>
       </c>
       <c r="L28" s="1">
-        <v>11.267</v>
+        <v>11.2709</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.2659</v>
@@ -10489,10 +10492,10 @@
         <v>339883.1827</v>
       </c>
       <c r="K29" s="1">
-        <v>272163.2723</v>
+        <v>272247.0126</v>
       </c>
       <c r="L29" s="1">
-        <v>11.4966</v>
+        <v>11.5001</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4103</v>
@@ -10542,10 +10545,10 @@
         <v>353721.4965</v>
       </c>
       <c r="K30" s="1">
-        <v>327403.8322</v>
+        <v>327487.5725</v>
       </c>
       <c r="L30" s="1">
-        <v>11.6233</v>
+        <v>11.6263</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.3976</v>
@@ -10595,10 +10598,10 @@
         <v>363307.7738</v>
       </c>
       <c r="K31" s="1">
-        <v>338561.6513</v>
+        <v>338645.3915</v>
       </c>
       <c r="L31" s="1">
-        <v>11.6484</v>
+        <v>11.6512</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.9013</v>
@@ -10648,10 +10651,10 @@
         <v>401497.519</v>
       </c>
       <c r="K32" s="1">
-        <v>352251.5446</v>
+        <v>352335.2849</v>
       </c>
       <c r="L32" s="1">
-        <v>11.6766</v>
+        <v>11.6794</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.3527</v>
@@ -10701,10 +10704,10 @@
         <v>425168.3702</v>
       </c>
       <c r="K33" s="1">
-        <v>354861.4183</v>
+        <v>354945.1585</v>
       </c>
       <c r="L33" s="1">
-        <v>11.6849</v>
+        <v>11.6877</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.8804</v>
@@ -10754,10 +10757,10 @@
         <v>451238.2848</v>
       </c>
       <c r="K34" s="1">
-        <v>357054.1616</v>
+        <v>357137.9018</v>
       </c>
       <c r="L34" s="1">
-        <v>11.694</v>
+        <v>11.6968</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.6268</v>
@@ -10807,10 +10810,10 @@
         <v>497726.4531</v>
       </c>
       <c r="K35" s="1">
-        <v>357078.8207</v>
+        <v>357162.561</v>
       </c>
       <c r="L35" s="1">
-        <v>11.6942</v>
+        <v>11.6969</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3636</v>
@@ -10860,10 +10863,10 @@
         <v>529856.1197</v>
       </c>
       <c r="K36" s="1">
-        <v>350649.5373</v>
+        <v>350758.9401</v>
       </c>
       <c r="L36" s="1">
-        <v>11.651</v>
+        <v>11.6546</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.8711</v>
@@ -10913,10 +10916,10 @@
         <v>495566.1192</v>
       </c>
       <c r="K37" s="1">
-        <v>345087.6147</v>
+        <v>345219.2372</v>
       </c>
       <c r="L37" s="1">
-        <v>11.6055</v>
+        <v>11.6099</v>
       </c>
       <c r="M37" s="1">
         <v>0.5</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.1252</v>
@@ -10966,10 +10969,10 @@
         <v>527362.2895</v>
       </c>
       <c r="K38" s="1">
-        <v>406461.5019</v>
+        <v>406593.1243</v>
       </c>
       <c r="L38" s="1">
-        <v>11.902</v>
+        <v>11.9059</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>12.2734</v>
       </c>
       <c r="D3" s="1">
-        <v>11.582</v>
+        <v>11.5892</v>
       </c>
       <c r="E3" s="1">
-        <v>11.6908</v>
+        <v>11.6968</v>
       </c>
       <c r="F3" s="1">
-        <v>11.7967</v>
+        <v>11.8016</v>
       </c>
       <c r="G3" s="1">
-        <v>11.902</v>
+        <v>11.9059</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>92535.1428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1837</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6677</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5352</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4119</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.297</v>
       </c>
     </row>
   </sheetData>
